--- a/词汇/数据库导入/011.-rect-正，直.xlsx
+++ b/词汇/数据库导入/011.-rect-正，直.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,3963 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>correct [kə'rekt]</t>
+  </si>
+  <si>
+    <t>rect</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改正，纠正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1804</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3271</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【cor-强调+-rect-正--改正，纠正
+词根直接结尾的单词99%都是多词性】</t>
+  </si>
+  <si>
+    <t>correctly [kə'rek(t)lɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确地；得体地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4403</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>correctness [kə'rɛktnɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确性【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11902</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+ness名词后缀】</t>
+  </si>
+  <si>
+    <t>correction [kə'rekʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改正，纠正，矫正，校正【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>corrected [kə'rektɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修正的；校正的；折算的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25553</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>correctional [kə'rɛkʃənl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矫正的；修正的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12668</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>corrective [kə'rektiv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改正的，纠正的，矫正的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13651</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23709</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>correcting [kə'rektiŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校正；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印刷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修正的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58093</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+ing形容词或动名词后缀】</t>
+  </si>
+  <si>
+    <t>corrector [kə'rektə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改正者，矫正者，校正者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39730</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+or名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>correctitude [kə'rekti]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行为的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端正</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+-itude名词后缀】</t>
+  </si>
+  <si>
+    <t>uncorrected [,ʌnkə'rɛktɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未修正的；未加管教的；未调整的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36395</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un-否定+corrected】</t>
+  </si>
+  <si>
+    <t>correctable [kə'rektəbl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可校正的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36272</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【correct+able形容词后缀，表能...的】</t>
+  </si>
+  <si>
+    <t>incorrect [,inkə'rekt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不正确的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7399</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in否定+correct】</t>
+  </si>
+  <si>
+    <t>incorrectly [ˌɪnkə'rektlɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不正确地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11434</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【incorrect+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>direct [daɪˈrekt]</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指挥，指示，指挥，命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1483</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1565</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B5M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【di-分+rect正，直--改正--导向正确方向】</t>
+  </si>
+  <si>
+    <t>directed [daɪ'rɛktɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定向的；经指导的；被控制的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19553</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>directness [daɪ'rɛktnɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接；率直；笔直【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21456</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+ness名词后缀】</t>
+  </si>
+  <si>
+    <t>direction [di'rekʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指示，指引，说明，指导，方向，方位【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>929</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X6M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>directive [dɪ'rektɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指示；指令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指导的；管理的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7728</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+ive名词或形容词后缀】</t>
+  </si>
+  <si>
+    <t>directing [daɪˈrektɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指导的；指向的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指导；导演【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36372</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+ing形容词或动名词后缀】</t>
+  </si>
+  <si>
+    <t>directory [dɪ'rekt(ə)rɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名录；指南【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8363</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X7M6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+ory名词后缀】</t>
+  </si>
+  <si>
+    <t>directional[di'rekʃənəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向的，定向的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15836</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direction+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>director [di'rektə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指导者，处长，局长，主任，指挥，导演【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>510</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B2M3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+or名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>directorate [dɪ'rekt(ə)rət]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>董事会；理事会；指挥部【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25463</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【director+ate名词后缀】</t>
+  </si>
+  <si>
+    <t>directorial [dɪ,rek'tɔːrɪəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理的；指挥的，指挥者的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24451</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【director+i+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>co-director [kəu-dɪ'rektə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主任【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【co在一起+director共同引领--主要责任人】</t>
+  </si>
+  <si>
+    <t>directress [di'rektris]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女指导者，女指挥，女导演</t>
+    </r>
+  </si>
+  <si>
+    <t>【director+ess女性名词后缀】</t>
+  </si>
+  <si>
+    <t>directly [di'rektli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>indirect [,indi'rekt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间接的，迂回的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6522</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in否定+direct直接的--不直接的--间接的】</t>
+  </si>
+  <si>
+    <t>directionless [də'rekʃnləs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有方向的；没有目标的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direction+-less否定形容词后缀】</t>
+  </si>
+  <si>
+    <t>self-directed [,selfdi'rektid]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自主的；自我指导的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23545</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【self-自己+directed】</t>
+  </si>
+  <si>
+    <t>misdirect [mɪsdaɪ'rekt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>误导；写错地址【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27911</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【mis-错误direct引导--误导】</t>
+  </si>
+  <si>
+    <t>indirection [,indi'rekʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间接，迂回，兜圈子【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36191</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in否定direction】</t>
+  </si>
+  <si>
+    <t>indirectly [,indi'rektli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间接地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【indirect+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>directorship [də'rɛktɚʃɪp]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者的职位【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【director+ship名词后缀，表抽象含义】</t>
+  </si>
+  <si>
+    <t>direct-mail [dəˈrekt-meɪl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接邮件；直接邮寄广告【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27849</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>undirected [ʌndɪ'rektɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未受指导的；无收件人姓名的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42543</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un-否定directed】</t>
+  </si>
+  <si>
+    <t>multidirectional [,mʌltɪdɪ'rekʃ(ə)n(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多方向的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42187</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【multi多+directional】</t>
+  </si>
+  <si>
+    <t>rectify ['rektɪfaɪ]</t>
+  </si>
+  <si>
+    <t>rectify</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改正，纠正，整顿【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14880</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X11M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-rect-正--改正+-i-连字符+-fy动词后缀】</t>
+  </si>
+  <si>
+    <t>rectifier ['rektifaiə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纠正者，整顿者，矫正器【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>57725</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rectify（y变i）+er名词后缀，表人
+如果fy（y）结尾，加新后缀时y通常变i再加，或直接去掉】</t>
+  </si>
+  <si>
+    <t>rectification [,rektifi'keiʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纠正，整顿【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34414</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rectify+ic+-ation复合名词后缀=-rect修正-+i+-fication复合名词后缀】</t>
+  </si>
+  <si>
+    <t>rectilineal [,rekti'liniəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直线的，直线运动的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词rect直+line线+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>rectangle ['rek,tæŋɡl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矩形，长方形【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9738</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10291</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词rect直+angle角--直角--矩形】</t>
+  </si>
+  <si>
+    <t>rectal ['rekt(ə)l]</t>
+  </si>
+  <si>
+    <t>rectal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直肠的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21629</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rect直--[医]直肠+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>rectum ['rektəm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直肠【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24716</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rect直+-um名词后缀】</t>
+  </si>
+  <si>
+    <t>colorectal [,kəʊləʊ'rekt(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结肠直肠的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23953</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【col-强调+o+rect直--直的地方--直肠+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>rectus ['rektəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解剖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直肌【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35077</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rect直--直的形状，直线条+-us名词后缀</t>
+  </si>
+  <si>
+    <t>anorectal [,ænə'rektəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解剖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肛门直肠的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>59951</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ano-肠道口+rect直--直肠+-al形容词后缀】</t>
+  </si>
+  <si>
+    <t>rector ['rektə]</t>
+  </si>
+  <si>
+    <t>rector</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校长；院长；教区牧师【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22261</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rect直，正--修正者，指导者+or名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>rectory ['rekt(ə)rɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教区长的管区【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23522</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rect+ory名词后缀】</t>
+  </si>
+  <si>
+    <t>erect [i'rekt]</t>
+  </si>
+  <si>
+    <t>erect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vt. 使竖立；建造；安装adj. 竖立的；笔直的；因性刺激而勃起的vi. 直立；勃起【词频6442，14392】【X10M4】</t>
+  </si>
+  <si>
+    <t>【e向外+rect直--向外直立--竖立】</t>
+  </si>
+  <si>
+    <t>erectile [i'rektail]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可竖直的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24152</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【erect+ile形容词后缀，表能...的】</t>
+  </si>
+  <si>
+    <t>erection [i'rekʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直立，竖直【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13554</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【erect+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>erective [i'rektiv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直立的，竖起的</t>
+    </r>
+  </si>
+  <si>
+    <t>【erect+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>erector [i'rektə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>树立者，建立者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31566</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【erect+or名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>resurrect [rezə'rekt]</t>
+  </si>
+  <si>
+    <t>resurrect</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使复活；复兴；挖出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复活【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10832</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re-再次+sur-下+rect直--再次直立--从坟墓中破土而出】</t>
+  </si>
+  <si>
+    <t>resurrection [rezə'rekʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复活；恢复；复兴【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10461</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【resurrect+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>redirect [ˌri:dəˈrekt]</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使改方向；重新寄送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再直接的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再直接询问【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11728</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re再次+direct引领--重新定位--改方向】</t>
+  </si>
+  <si>
+    <t>redirection [,ridə'rɛkʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重寄；改道；转移呼叫【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29979</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【redirect+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>insurrection [,ɪnsə'rekʃ(ə)n]</t>
+  </si>
+  <si>
+    <t>insurrection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴动；叛乱【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16732</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in-使动sur-下rect直--立起来-反抗，暴动+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>insurrectionist [,insə'rekʃənist]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>起义者；造反者；暴动者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51530</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【insurrection+ist名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>insurrectionary [,insə'rekʃənəri]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴动者，起义者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴动的；起义的，造反的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52358</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【insurrection+ary名词或形容词后缀】</t>
+  </si>
+  <si>
+    <t>rectitude ['rektɪtjuːd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公正；诚实；清廉【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25954</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rect正--直--公正，诚实+itude名词后缀】</t>
+  </si>
+  <si>
+    <t>bidirectional [baɪdɪ'rekʃ(ə)n(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双向的；双向作用的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31593</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【bi-分--一分为二+directional】</t>
+  </si>
+  <si>
+    <t>director-general [di'rektə'dʒenərəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总干事；理事长；署长【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词 general一般，将军，上将，常规】</t>
+  </si>
+  <si>
+    <t>unidirectional [,juːnɪdɪ'rekʃ(ə)n(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单向的；单向性的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32921</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-un-整体，单一+i连字符+directional】</t>
+  </si>
+  <si>
+    <t>misdirection [,mɪsdaɪ'rɛkʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指示错误，指导错误；写错信封地址【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【mis-错误+direction】</t>
+  </si>
+  <si>
+    <r>
+      <t>misdirected [mɪsdaɪ'rekt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>误导；写错地址【表示动词的过去式和过去分词】【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【mis-错误+directed】</t>
+  </si>
+  <si>
+    <t>writer-director ['raɪtə-dɪ'rektə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编剧加导演【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37606</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>self-direction [,selfdi'rekʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动引导【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37916</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58380</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>goal-directed ['ɡəuldi'rektid]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有用意的，有目的的；有意图的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38731</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>self-correcting [,selfkə'rektiŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动修正的，自动调整的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>directionality [daɪrɛkʃə'næləti]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定向性，方向性；方向感知【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39369</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【direct+ion+al+i+ty名词后缀】</t>
+  </si>
+  <si>
+    <t>teacher-directed ['tiːtʃə-daɪ'rɛktɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以教师为主导的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43338</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>incorrectness [,ɪnkə'rɛktnɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误；不合适；不真实【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47902</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in-否定+correct+ness名词后缀】</t>
+  </si>
+  <si>
+    <t>recto ['rektəʊ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（书中的）右页；纸张的正面【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48145</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【rect正--正面+o名词后缀】</t>
+  </si>
+  <si>
+    <t>non-directive [nɔn-dɪ'rektɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不定向的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48530</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【non-否定+directive】</t>
+  </si>
+  <si>
+    <t>state-directed [steɪt-daɪ'rɛktɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主导的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48593</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>other-directed ['ʌðədi'rektid]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受人支配的；缺少自主性的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>49517</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>self-correction [self-kə'rekʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我修正；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自校正【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50647</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>omnidirectional [,ɒmnɪdɪ'rekʃ(ə)n(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全方向的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50677</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-omni-全+directional】</t>
+  </si>
+  <si>
+    <t>direct-marketing [dəˈrekt-'mɑːkɪtɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直复营销【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51625</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>direct-drive [dəˈrekt-draɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接激励【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52788</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词drive n. 驱动器；驾车；[心理] 内驱力，推进力；快车道】</t>
+  </si>
+  <si>
+    <t>direct-injection [dəˈrekt-ɪn'dʒekʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接注射【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词 in-向内+ject投--向内投--投进去--注射+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>producer-director [prə'djuːsə-dɪ'rektə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编导【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53474</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>direct-view [dəˈrekt-vjuː]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直观【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55870</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>direct-action [dəˈrekt-'ækʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接传动【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>student-directed ['stjuːd(ə)nt-daɪ'rɛktɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生导向的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56380</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>consumer-directed [kən'sjuːmə-daɪ'rɛktɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消费者主导的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>direct-to-video [dəˈrekt-tu-'vɪdɪəʊ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录像带首映【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58532</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>direct-response [dəˈrekt-rɪ'spɒns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接回应【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58757</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词 response回应=re-往回+-spons-承诺+e名词后缀】</t>
+  </si>
+  <si>
+    <t>direct-sales [dəˈrekt-seɪlz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接销售【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58865</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -38,12 +3995,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +4009,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,8 +4089,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +4106,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,15 +4114,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,46 +4143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -172,9 +4150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +4165,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -212,7 +4180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +4204,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,31 +4282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +4306,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,55 +4342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,49 +4354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +4389,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -431,16 +4414,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,31 +4464,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,160 +4491,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +5009,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1052,6 +5039,1565 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" ht="26.25" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" spans="1:5">
+      <c r="A84" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" ht="25.5" spans="1:5">
+      <c r="A85" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
